--- a/lesson-11-scrapy/scrap-cs-faculty/faculty-MIT-CS.xlsx
+++ b/lesson-11-scrapy/scrap-cs-faculty/faculty-MIT-CS.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="CS Faculty-MIT" sheetId="1" r:id="rId1"/>
+    <sheet name="Faculty" sheetId="1" r:id="rId1"/>
     <sheet name="Research Groups" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
